--- a/website/csv_files/Filter_Patent_Download.xlsx
+++ b/website/csv_files/Filter_Patent_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,33 +479,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">asjkdvbhjdfvlkasnvkj </t>
+          <t>New Patent Edited</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sdkjb vkjdsv kj</t>
+          <t>12346</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>dsklvndsjvndsvnkl</t>
+          <t>Working on New Technologies</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Awarded</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>46388</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="3">
@@ -513,24 +513,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>skjdnvkjdsv dskj</t>
+          <t>New Author</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dfkljnvjdsv jdsk</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>dvsklnvjksdvk</t>
+          <t>New {Patent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -539,40 +539,6 @@
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sdvfg</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>svfdb</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
         <v>44927</v>
       </c>
     </row>
